--- a/model_sets/src/other.xlsx
+++ b/model_sets/src/other.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="18">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t xml:space="preserve">build</t>
+  </si>
+  <si>
+    <t xml:space="preserve">other</t>
   </si>
   <si>
     <t xml:space="preserve">package</t>
@@ -175,35 +178,40 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -228,7 +236,7 @@
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -272,11 +280,11 @@
       <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -288,10 +296,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -325,11 +333,11 @@
       <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -341,19 +349,19 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>4</v>
@@ -387,20 +395,20 @@
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -409,13 +417,13 @@
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>4</v>

--- a/model_sets/src/other.xlsx
+++ b/model_sets/src/other.xlsx
@@ -8,11 +8,11 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="model" r:id="rId8" sheetId="16"/>
-    <sheet name="packages" r:id="rId9" sheetId="17"/>
-    <sheet name="concepts" r:id="rId10" sheetId="18"/>
-    <sheet name="elements" r:id="rId11" sheetId="19"/>
-    <sheet name="structures" r:id="rId12" sheetId="20"/>
+    <sheet name="model" r:id="rId8" sheetId="46"/>
+    <sheet name="packages" r:id="rId9" sheetId="47"/>
+    <sheet name="concepts" r:id="rId10" sheetId="48"/>
+    <sheet name="elements" r:id="rId11" sheetId="49"/>
+    <sheet name="structures" r:id="rId12" sheetId="50"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="37">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -209,7 +209,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="65">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -217,6 +217,195 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -230,7 +419,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -240,50 +429,59 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="5.67578125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="8.8125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.21484375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="11.0078125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="6.0703125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.5703125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.046875" customWidth="true" bestFit="true"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
+    <row r="1" s="6" customFormat="true">
+      <c r="A1" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="8">
         <v>20</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="9">
         <v>21</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="10">
         <v>22</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="11">
         <v>23</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="12">
         <v>24</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="13">
         <v>25</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
+    <row r="2" s="14" customFormat="true">
+      <c r="A2" t="s" s="15">
         <v>26</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="16">
         <v>18</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="17">
         <v>18</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="18">
         <v>18</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" t="s" s="20">
         <v>18</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s" s="21">
         <v>18</v>
       </c>
     </row>
@@ -292,7 +490,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:F1"/>
   <sheetViews>
@@ -302,24 +500,32 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="5.67578125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="8.8125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.21484375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="6.0703125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="5.5703125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.046875" customWidth="true" bestFit="true"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
+    <row r="1" s="22" customFormat="true">
+      <c r="A1" t="s" s="23">
         <v>19</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="24">
         <v>20</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="25">
         <v>21</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="26">
         <v>23</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="27">
         <v>24</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="28">
         <v>25</v>
       </c>
     </row>
@@ -328,7 +534,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:I1"/>
   <sheetViews>
@@ -338,33 +544,44 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="8.015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="5.67578125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="8.8125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="10.21484375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="7.31640625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="6.87890625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="6.0703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="5.5703125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="5.046875" customWidth="true" bestFit="true"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
+    <row r="1" s="29" customFormat="true">
+      <c r="A1" t="s" s="30">
         <v>27</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="31">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="32">
         <v>20</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="33">
         <v>21</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="34">
         <v>28</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="35">
         <v>29</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="36">
         <v>23</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" t="s" s="37">
         <v>24</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" t="s" s="38">
         <v>25</v>
       </c>
     </row>
@@ -373,7 +590,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:L1"/>
   <sheetViews>
@@ -383,42 +600,56 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="8.015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="5.67578125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="8.8125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="10.21484375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="6.44921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="8.4609375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="8.05859375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="6.6640625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="6.87890625" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="6.0703125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="5.5703125" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="5.046875" customWidth="true" bestFit="true"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
+    <row r="1" s="39" customFormat="true">
+      <c r="A1" t="s" s="40">
         <v>27</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="41">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="42">
         <v>20</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="43">
         <v>21</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="44">
         <v>30</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="45">
         <v>31</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="46">
         <v>32</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" t="s" s="47">
         <v>33</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" t="s" s="48">
         <v>29</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" t="s" s="49">
         <v>23</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" t="s" s="50">
         <v>24</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" t="s" s="51">
         <v>25</v>
       </c>
     </row>
@@ -427,7 +658,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:L1"/>
   <sheetViews>
@@ -437,42 +668,56 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="8.015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="5.67578125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="8.21875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="7.8203125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="8.8125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="10.21484375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="8.4609375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="6.6640625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="9.41796875" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="6.0703125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="5.5703125" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="5.046875" customWidth="true" bestFit="true"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
+    <row r="1" s="52" customFormat="true">
+      <c r="A1" t="s" s="53">
         <v>27</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="54">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="55">
         <v>34</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="56">
         <v>35</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="57">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="58">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="59">
         <v>31</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" t="s" s="60">
         <v>33</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" t="s" s="61">
         <v>36</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" t="s" s="62">
         <v>23</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" t="s" s="63">
         <v>24</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" t="s" s="64">
         <v>25</v>
       </c>
     </row>
